--- a/techniqo/data_new_ticker/TVTODAY.xlsx
+++ b/techniqo/data_new_ticker/TVTODAY.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1006"/>
+  <dimension ref="A1:G1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35596,6 +35596,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>233.15</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>46487</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>222</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>224</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>35265</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TVTODAY.xlsx
+++ b/techniqo/data_new_ticker/TVTODAY.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1008"/>
+  <dimension ref="A1:G1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35646,6 +35646,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>224</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>229.45</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>221.65</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>46819</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>231.95</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>220</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>223.35</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>64795</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
